--- a/documents/画面遷移図_＃かけだしエンジニア.xlsx
+++ b/documents/画面遷移図_＃かけだしエンジニア.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - 株式会社SEプラス\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9449BCD-215A-4E68-820B-1F4F194B5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1B82C8-9EA2-4908-A543-DFDD08B63C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,13 +914,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -937,8 +937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6115050" y="1714500"/>
-          <a:ext cx="1038225" cy="285750"/>
+          <a:off x="6115051" y="1714500"/>
+          <a:ext cx="1476374" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,7 +974,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面</a:t>
+            <a:t>メニュー（講師）画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1113,7 +1113,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -1131,7 +1131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8201025" y="1266825"/>
-          <a:ext cx="1133475" cy="304800"/>
+          <a:ext cx="1628775" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,7 +1167,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面</a:t>
+            <a:t>メニュー（受講者）画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3109,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M38" sqref="M37:M38"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
